--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.15/avg_0.003_scores.xlsx
@@ -103,28 +103,28 @@
     <t>hand</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>heroes</t>
@@ -661,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1193,13 +1193,13 @@
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7709251101321586</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L12">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>0.9399999999999999</v>
@@ -1211,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1243,25 +1243,25 @@
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.7555555555555555</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1295,25 +1295,25 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7024539877300614</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L15">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,25 +1321,25 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.696969696969697</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N16">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1347,25 +1347,25 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6888888888888889</v>
+        <v>0.6866197183098591</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1373,25 +1373,25 @@
         <v>35</v>
       </c>
       <c r="K18">
-        <v>0.6866197183098591</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L18">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1399,25 +1399,25 @@
         <v>36</v>
       </c>
       <c r="K19">
-        <v>0.6842105263157895</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="10:17">
